--- a/Replacement difference.xlsx
+++ b/Replacement difference.xlsx
@@ -166,11 +166,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -199,11 +198,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -236,13 +234,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3278,13 +3282,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6320,13 +6330,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -9362,13 +9378,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -12408,19 +12430,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -12431,9 +12472,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -12461,12 +12501,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12490,9 +12541,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -12516,7 +12566,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12533,9 +12583,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -12553,11 +12602,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -12605,11 +12657,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -12638,11 +12689,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -12675,13 +12725,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -15717,13 +15773,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -18759,13 +18821,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -21801,13 +21869,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -24847,19 +24921,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -24870,9 +24963,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -24900,12 +24992,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -24929,9 +25032,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -24955,7 +25057,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -24972,9 +25074,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -24992,11 +25093,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -25104,33 +25208,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -25139,38 +25256,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25180,23 +25273,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -25204,84 +25292,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -25297,21 +25432,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25321,22 +25453,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -25345,14 +25477,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25364,14 +25495,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25383,30 +25513,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -25416,16 +25551,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -25435,14 +25583,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25454,14 +25601,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25473,27 +25619,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -25501,9 +25646,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25513,14 +25657,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25532,12 +25675,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -25546,14 +25688,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -25562,9 +25705,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25578,15 +25720,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -25595,9 +25739,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25607,46 +25750,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -25655,38 +25805,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25696,23 +25822,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -25720,84 +25841,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -25813,21 +25981,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25837,22 +26002,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -25861,14 +26026,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25880,14 +26044,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25899,30 +26062,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -25932,16 +26100,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -25951,14 +26132,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25970,14 +26150,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25989,27 +26168,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -26017,9 +26195,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -26029,14 +26206,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -26048,12 +26224,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -26062,14 +26237,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -26078,9 +26254,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -26094,15 +26269,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -26111,9 +26288,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -26123,14 +26299,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -26467,7 +26637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>

--- a/Replacement difference.xlsx
+++ b/Replacement difference.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +72,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,18 +107,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -26637,8 +26662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26750,14 +26775,14 @@
         <v>6</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26785,17 +26810,17 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <f>AVERAGE(B7:B1006)</f>
         <v>1.4292177017873886E-2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <f>AVERAGE(C7:C1006)</f>
         <v>-1.7749539556389422E-3</v>
       </c>
@@ -26828,17 +26853,17 @@
       <c r="I7">
         <v>6.1889952595669803E-2</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <f>AVERAGE(D7:D1006)</f>
         <v>6.0041905080143954</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <f>AVERAGE(E7:E1006)</f>
         <v>7.704592513235145E-2</v>
       </c>
@@ -26871,17 +26896,17 @@
       <c r="I8">
         <v>7.8167306399302805E-2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <f>AVERAGE(F7:F1007)</f>
         <v>0.17741746987992588</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <f>AVERAGE(G7:G1007)</f>
         <v>-2.2454778469462779E-3</v>
       </c>
@@ -26914,17 +26939,17 @@
       <c r="I9">
         <v>7.9698500923003193E-2</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <f>AVERAGE(H7:H1006)</f>
         <v>5.6461711517275672</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <f>AVERAGE(I7:I1006)</f>
         <v>7.1928230501721674E-2</v>
       </c>
